--- a/cv_benchmark_rf.xlsx
+++ b/cv_benchmark_rf.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\honours-project-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EA586518-FA34-4BD3-96FE-9620C05F1086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0B9AA0-9B90-497B-A5A5-62EFAB6D4FA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cv_benchmark_rf" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>traning_size</t>
   </si>
@@ -41,21 +52,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Running Total</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Count</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>MEAN</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -67,12 +63,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -80,7 +76,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -88,7 +84,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="游ゴシック Light"/>
+      <name val="等线 Light"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="major"/>
@@ -97,7 +93,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -106,7 +102,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -115,7 +111,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -123,7 +119,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -131,7 +127,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -139,7 +135,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -147,7 +143,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -156,7 +152,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -165,7 +161,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -173,7 +169,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -182,7 +178,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -190,7 +186,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -199,7 +195,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -208,7 +204,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -216,14 +212,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -750,9 +746,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="2000" baseline="0"/>
-              <a:t>10 Folds for Random Forest (RF)</a:t>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Cross-validation RF</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="2000">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -781,7 +782,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1276,7 +1277,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1289,7 +1290,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1500" baseline="0"/>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
                   <a:t>N of folds</a:t>
                 </a:r>
               </a:p>
@@ -1308,7 +1309,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1320,7 +1321,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1358,7 +1359,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="972643999"/>
@@ -1393,7 +1394,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1406,7 +1407,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1500" baseline="0"/>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
                   <a:t>Score</a:t>
                 </a:r>
               </a:p>
@@ -1425,7 +1426,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1437,7 +1438,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1475,7 +1476,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1130535599"/>
@@ -1505,7 +1506,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1517,7 +1518,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1554,7 +1555,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2125,16 +2126,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>478081</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>238860</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>97084</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>13778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>444744</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>6595</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>70338</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2458,16 +2459,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2484,7 +2485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2504,7 +2505,7 @@
         <v>0.42470256792462702</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2524,7 +2525,7 @@
         <v>0.35825494040172301</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2544,7 +2545,7 @@
         <v>0.36066750532548097</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2564,7 +2565,7 @@
         <v>7.8555409353563699E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2584,7 +2585,7 @@
         <v>0.27573992524639102</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2604,7 +2605,7 @@
         <v>0.24422444034170299</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2624,7 +2625,7 @@
         <v>9.6127810632664401E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2644,7 +2645,7 @@
         <v>0.23084610959909199</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2664,7 +2665,7 @@
         <v>0.193175904381301</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2684,9 +2685,9 @@
         <v>0.158703897303696</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <f>AVERAGE(C2:C11)</f>
@@ -2705,9 +2706,9 @@
         <v>0.24209985105102416</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <f>STDEV(C2:C11)</f>
